--- a/artfynd/A 21627-2023.xlsx
+++ b/artfynd/A 21627-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2860,6 +2860,6432 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112529892</v>
+      </c>
+      <c r="B19" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>708200</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7087588</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112529904</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>708252</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7087664</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112529841</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>708131</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7087457</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112529840</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>708086</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7087437</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112529877</v>
+      </c>
+      <c r="B23" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>708192</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7087573</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112529873</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>708180</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7087546</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Per-Anders Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112529894</v>
+      </c>
+      <c r="B25" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>707948</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7087593</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112529891</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>707928</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7087588</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112529839</v>
+      </c>
+      <c r="B27" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>708114</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7087436</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112529871</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>708172</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7087543</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112529898</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>707896</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7087596</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112529887</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>707931</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7087583</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112529842</v>
+      </c>
+      <c r="B31" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>708088</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7087457</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112529844</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>708081</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7087468</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112529872</v>
+      </c>
+      <c r="B33" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>708187</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7087543</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112529879</v>
+      </c>
+      <c r="B34" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>707931</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7087576</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112529855</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>708151</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7087498</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112529896</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>707929</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7087594</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112529889</v>
+      </c>
+      <c r="B37" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>707952</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7087586</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112529861</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>708054</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7087511</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112529868</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>708025</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7087529</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112529845</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>708156</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7087469</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112529897</v>
+      </c>
+      <c r="B41" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>707943</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7087595</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112529870</v>
+      </c>
+      <c r="B42" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>708089</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7087541</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112529905</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>708252</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7087665</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112529851</v>
+      </c>
+      <c r="B44" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>708149</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7087489</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112529865</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>708125</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7087524</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112529880</v>
+      </c>
+      <c r="B46" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>707933</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7087579</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112529867</v>
+      </c>
+      <c r="B47" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>708204</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7087527</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112529858</v>
+      </c>
+      <c r="B48" t="n">
+        <v>78647</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>708059</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7087503</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112529907</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>708225</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7087689</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112529890</v>
+      </c>
+      <c r="B50" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>707943</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7087588</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112529860</v>
+      </c>
+      <c r="B51" t="n">
+        <v>78746</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>6463</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bårdlav</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Nephroma parile</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>708056</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7087508</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112529906</v>
+      </c>
+      <c r="B52" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>708230</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7087674</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112529878</v>
+      </c>
+      <c r="B53" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>707988</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7087576</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112529885</v>
+      </c>
+      <c r="B54" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>707987</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7087580</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112529903</v>
+      </c>
+      <c r="B55" t="n">
+        <v>89564</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1205</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Stor aspticka</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Phellinus populicola</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>708216</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7087659</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112529875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>707988</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7087564</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112529854</v>
+      </c>
+      <c r="B57" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>708149</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7087493</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112529853</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>708163</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7087493</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112529909</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90814</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>708221</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7087718</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112529852</v>
+      </c>
+      <c r="B60" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>708059</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7087490</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112529857</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>708164</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7087502</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112529848</v>
+      </c>
+      <c r="B62" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>708168</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7087478</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112529849</v>
+      </c>
+      <c r="B63" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>708159</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7087484</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112529869</v>
+      </c>
+      <c r="B64" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>708197</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7087533</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>112529864</v>
+      </c>
+      <c r="B65" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>708183</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7087520</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>112529881</v>
+      </c>
+      <c r="B66" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>707975</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7087579</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>112529883</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>707946</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7087580</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>112529850</v>
+      </c>
+      <c r="B68" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>708152</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7087486</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>112529859</v>
+      </c>
+      <c r="B69" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>708158</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7087505</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>112529888</v>
+      </c>
+      <c r="B70" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>707941</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7087585</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Per-Anders Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>112529846</v>
+      </c>
+      <c r="B71" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>708074</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7087468</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112529884</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>707933</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7087580</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>112529838</v>
+      </c>
+      <c r="B73" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>708058</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7087432</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Henrik Sporrong</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112529843</v>
+      </c>
+      <c r="B74" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>708091</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7087459</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Per-Anders Blomqvist</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>112529893</v>
+      </c>
+      <c r="B75" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>707938</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7087590</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112529862</v>
+      </c>
+      <c r="B76" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>708051</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7087517</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>112529901</v>
+      </c>
+      <c r="B77" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>708195</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7087612</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Åsa Stenman</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>112529876</v>
+      </c>
+      <c r="B78" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>707983</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7087566</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>112529902</v>
+      </c>
+      <c r="B79" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>708218</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7087633</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112529908</v>
+      </c>
+      <c r="B80" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>708223</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7087704</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112529882</v>
+      </c>
+      <c r="B81" t="n">
+        <v>89993</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Gammfällan, Ång</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>707941</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7087579</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Simon Mattsson</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Simon Mattsson, Maja Östlund</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 21627-2023.xlsx
+++ b/artfynd/A 21627-2023.xlsx
@@ -3678,10 +3678,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112529839</v>
+        <v>112529898</v>
       </c>
       <c r="B27" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3694,21 +3694,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3718,10 +3718,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>708114</v>
+        <v>707896</v>
       </c>
       <c r="R27" t="n">
-        <v>7087436</v>
+        <v>7087596</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3773,17 +3773,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Åsa Stenman</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112529871</v>
+        <v>112529839</v>
       </c>
       <c r="B28" t="n">
-        <v>89571</v>
+        <v>89553</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3796,21 +3796,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>708172</v>
+        <v>708114</v>
       </c>
       <c r="R28" t="n">
-        <v>7087543</v>
+        <v>7087436</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3875,17 +3875,17 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson, Åsa Stenman</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112529898</v>
+        <v>112529887</v>
       </c>
       <c r="B29" t="n">
-        <v>89571</v>
+        <v>89517</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3922,10 +3922,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>707896</v>
+        <v>707931</v>
       </c>
       <c r="R29" t="n">
-        <v>7087596</v>
+        <v>7087583</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3977,17 +3977,17 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112529887</v>
+        <v>112529871</v>
       </c>
       <c r="B30" t="n">
-        <v>89517</v>
+        <v>89571</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3996,25 +3996,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>707931</v>
+        <v>708172</v>
       </c>
       <c r="R30" t="n">
-        <v>7087583</v>
+        <v>7087543</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4079,17 +4079,17 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112529842</v>
+        <v>112529879</v>
       </c>
       <c r="B31" t="n">
-        <v>96735</v>
+        <v>89553</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4098,25 +4098,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>708088</v>
+        <v>707931</v>
       </c>
       <c r="R31" t="n">
-        <v>7087457</v>
+        <v>7087576</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4181,14 +4181,14 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson, Åsa Stenman</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112529844</v>
+        <v>112529842</v>
       </c>
       <c r="B32" t="n">
         <v>96735</v>
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>708081</v>
+        <v>708088</v>
       </c>
       <c r="R32" t="n">
-        <v>7087468</v>
+        <v>7087457</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4283,14 +4283,14 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Anna Hallmén</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112529872</v>
+        <v>112529844</v>
       </c>
       <c r="B33" t="n">
         <v>96735</v>
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>708187</v>
+        <v>708081</v>
       </c>
       <c r="R33" t="n">
-        <v>7087543</v>
+        <v>7087468</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4385,17 +4385,17 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson, Anna Hallmén</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112529879</v>
+        <v>112529872</v>
       </c>
       <c r="B34" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4404,25 +4404,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>707931</v>
+        <v>708187</v>
       </c>
       <c r="R34" t="n">
-        <v>7087576</v>
+        <v>7087543</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Åsa Stenman</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112529858</v>
+        <v>112529890</v>
       </c>
       <c r="B48" t="n">
-        <v>78647</v>
+        <v>89993</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5832,25 +5832,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6456</v>
+        <v>1209</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5860,10 +5860,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>708059</v>
+        <v>707943</v>
       </c>
       <c r="R48" t="n">
-        <v>7087503</v>
+        <v>7087588</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5915,17 +5915,17 @@
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson, Åsa Stenman</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112529907</v>
+        <v>112529858</v>
       </c>
       <c r="B49" t="n">
-        <v>96735</v>
+        <v>78647</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5934,25 +5934,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5962,10 +5962,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>708225</v>
+        <v>708059</v>
       </c>
       <c r="R49" t="n">
-        <v>7087689</v>
+        <v>7087503</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112529890</v>
+        <v>112529860</v>
       </c>
       <c r="B50" t="n">
-        <v>89993</v>
+        <v>78746</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1209</v>
+        <v>6463</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6064,10 +6064,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>707943</v>
+        <v>708056</v>
       </c>
       <c r="R50" t="n">
-        <v>7087588</v>
+        <v>7087508</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6119,17 +6119,17 @@
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Åsa Stenman</t>
+          <t>Simon Mattsson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112529860</v>
+        <v>112529906</v>
       </c>
       <c r="B51" t="n">
-        <v>78746</v>
+        <v>96735</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6138,25 +6138,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6166,10 +6166,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>708056</v>
+        <v>708230</v>
       </c>
       <c r="R51" t="n">
-        <v>7087508</v>
+        <v>7087674</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112529906</v>
+        <v>112529907</v>
       </c>
       <c r="B52" t="n">
         <v>96735</v>
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>708230</v>
+        <v>708225</v>
       </c>
       <c r="R52" t="n">
-        <v>7087674</v>
+        <v>7087689</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Simon Mattsson</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
@@ -6432,10 +6432,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112529885</v>
+        <v>112529903</v>
       </c>
       <c r="B54" t="n">
-        <v>89571</v>
+        <v>89564</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6444,25 +6444,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>1205</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>707987</v>
+        <v>708216</v>
       </c>
       <c r="R54" t="n">
-        <v>7087580</v>
+        <v>7087659</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6527,17 +6527,17 @@
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112529903</v>
+        <v>112529875</v>
       </c>
       <c r="B55" t="n">
-        <v>89564</v>
+        <v>89553</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6546,25 +6546,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>708216</v>
+        <v>707988</v>
       </c>
       <c r="R55" t="n">
-        <v>7087659</v>
+        <v>7087564</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6629,17 +6629,17 @@
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Simon Mattsson</t>
+          <t>Simon Mattsson, Åsa Stenman</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112529875</v>
+        <v>112529854</v>
       </c>
       <c r="B56" t="n">
-        <v>89553</v>
+        <v>96735</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6648,25 +6648,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>707988</v>
+        <v>708149</v>
       </c>
       <c r="R56" t="n">
-        <v>7087564</v>
+        <v>7087493</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6731,14 +6731,14 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Åsa Stenman</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112529854</v>
+        <v>112529853</v>
       </c>
       <c r="B57" t="n">
         <v>96735</v>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>708149</v>
+        <v>708163</v>
       </c>
       <c r="R57" t="n">
         <v>7087493</v>
@@ -6833,17 +6833,17 @@
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112529853</v>
+        <v>112529909</v>
       </c>
       <c r="B58" t="n">
-        <v>96735</v>
+        <v>90814</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6852,25 +6852,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>708163</v>
+        <v>708221</v>
       </c>
       <c r="R58" t="n">
-        <v>7087493</v>
+        <v>7087718</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6935,17 +6935,17 @@
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Simon Mattsson</t>
+          <t>Simon Mattsson, Åsa Stenman</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112529909</v>
+        <v>112529885</v>
       </c>
       <c r="B59" t="n">
-        <v>90814</v>
+        <v>89571</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6954,25 +6954,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4364</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>708221</v>
+        <v>707987</v>
       </c>
       <c r="R59" t="n">
-        <v>7087718</v>
+        <v>7087580</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Åsa Stenman</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
@@ -8574,10 +8574,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112529893</v>
+        <v>112529901</v>
       </c>
       <c r="B75" t="n">
-        <v>89993</v>
+        <v>89517</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8586,25 +8586,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>707938</v>
+        <v>708195</v>
       </c>
       <c r="R75" t="n">
-        <v>7087590</v>
+        <v>7087612</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8676,10 +8676,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112529862</v>
+        <v>112529876</v>
       </c>
       <c r="B76" t="n">
-        <v>78713</v>
+        <v>89553</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8692,21 +8692,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8716,10 +8716,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>708051</v>
+        <v>707983</v>
       </c>
       <c r="R76" t="n">
-        <v>7087517</v>
+        <v>7087566</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8771,17 +8771,17 @@
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Åsa Stenman</t>
+          <t>Simon Mattsson, Maja Östlund</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112529901</v>
+        <v>112529893</v>
       </c>
       <c r="B77" t="n">
-        <v>89517</v>
+        <v>89993</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8790,25 +8790,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8818,10 +8818,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>708195</v>
+        <v>707938</v>
       </c>
       <c r="R77" t="n">
-        <v>7087612</v>
+        <v>7087590</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8880,10 +8880,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112529876</v>
+        <v>112529862</v>
       </c>
       <c r="B78" t="n">
-        <v>89553</v>
+        <v>78713</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8896,21 +8896,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8920,10 +8920,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>707983</v>
+        <v>708051</v>
       </c>
       <c r="R78" t="n">
-        <v>7087566</v>
+        <v>7087517</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Simon Mattsson, Maja Östlund</t>
+          <t>Simon Mattsson, Åsa Stenman</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
